--- a/BaseballProject/MLBInformation.xlsx
+++ b/BaseballProject/MLBInformation.xlsx
@@ -40,7 +40,7 @@
     <t>Atlanta Braves</t>
   </si>
   <si>
-    <t>SunTrust Park</t>
+    <t>Sun Trust Park</t>
   </si>
   <si>
     <t>Cumberland, Georgia</t>
@@ -220,7 +220,7 @@
     <t>Oakland Athletics</t>
   </si>
   <si>
-    <t xml:space="preserve">Oakland–Alameda County Coliseum </t>
+    <t>Oakland–Alameda County Coliseum</t>
   </si>
   <si>
     <t>Oakland, California</t>
